--- a/DATA/body_weights_template.xlsx
+++ b/DATA/body_weights_template.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgianaanderson/Documents/my_books/CODING-TEAM-BOOKDOWN-/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961F8895-0B6B-B64E-9A6D-8B653D3EF03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B9706D-8FAC-AF45-8D9D-6D5C1823F189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="500" windowWidth="27500" windowHeight="11800" activeTab="1" xr2:uid="{EF754327-75C9-0D46-A1B0-E47C524B8CAE}"/>
+    <workbookView xWindow="1300" yWindow="500" windowWidth="27500" windowHeight="11800" xr2:uid="{EF754327-75C9-0D46-A1B0-E47C524B8CAE}"/>
   </bookViews>
   <sheets>
-    <sheet name="5.26.22" sheetId="1" r:id="rId1"/>
-    <sheet name="6.3.22" sheetId="2" r:id="rId2"/>
+    <sheet name="initial_mouse_data" sheetId="3" r:id="rId1"/>
+    <sheet name="5.26.22" sheetId="1" r:id="rId2"/>
+    <sheet name="6.3.22" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="44">
   <si>
     <t>who_collected</t>
   </si>
@@ -123,26 +124,64 @@
   </si>
   <si>
     <t>Moved cage</t>
+  </si>
+  <si>
+    <t>starting_cage_number</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>C57BL/6</t>
+  </si>
+  <si>
+    <t>C57BL/7</t>
+  </si>
+  <si>
+    <t>C57BL/8</t>
+  </si>
+  <si>
+    <t>C57BL/9</t>
+  </si>
+  <si>
+    <t>C57BL/10</t>
+  </si>
+  <si>
+    <t>C57BL/11</t>
+  </si>
+  <si>
+    <t>C57BL/12</t>
+  </si>
+  <si>
+    <t>C57BL/13</t>
+  </si>
+  <si>
+    <t>C57BL/14</t>
+  </si>
+  <si>
+    <t>C57BL/15</t>
+  </si>
+  <si>
+    <t>C57BL/16</t>
+  </si>
+  <si>
+    <t>C57BL/17</t>
+  </si>
+  <si>
+    <t>C57BL/18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -157,6 +196,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -167,18 +219,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFACB9CA"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -203,21 +255,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -236,50 +273,75 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyFill="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyFill="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Style 1" xfId="2" xr:uid="{56B2A7D0-1551-3243-9BE4-8C4F160DEF36}"/>
+    <cellStyle name="Style 2" xfId="3" xr:uid="{717F9E4B-51E9-5E47-8A37-C62FFF564D55}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -590,1300 +652,1107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FC4EE5-1EB9-4A48-ABF9-172926C98DE8}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="11"/>
+    <col min="2" max="2" width="20.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="10.83203125" style="12"/>
+    <col min="6" max="6" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>22003</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>22003</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>22003</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>22003</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>22008</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>22008</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>22008</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>22008</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>22009</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>22009</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>22009</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>22009</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>22010</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC4A97D-A06C-3341-8FDE-C35378163F26}">
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="2" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="2"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="12.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="17.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="12"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="12.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="F1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="G1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="C2" s="10">
         <v>0</v>
       </c>
-      <c r="F2" s="6">
+      <c r="D2" s="2">
         <v>18.399999999999999</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
         <v>22003</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6">
+      <c r="D3" s="2">
         <v>17.2</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="E3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
         <v>22003</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6">
+      <c r="D4" s="2">
         <v>17</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="E4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
         <v>22003</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="6">
+      <c r="D5" s="2">
         <v>18.8</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="E5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
         <v>22003</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="I5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="C6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="D6" s="2">
         <v>18.399999999999999</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="E6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2">
         <v>22008</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="I6" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6">
+      <c r="D7" s="2">
         <v>17.899999999999999</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="E7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
         <v>22008</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="I7" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6">
+      <c r="D8" s="2">
         <v>16</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="E8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
         <v>22008</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="I8" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="6">
+      <c r="D9" s="2">
         <v>18.399999999999999</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="E9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
         <v>22008</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="I9" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="C10" s="10">
         <v>0</v>
       </c>
-      <c r="F10" s="6">
+      <c r="D10" s="2">
         <v>18.600000000000001</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="E10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2">
         <v>22009</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="I10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="C11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="6">
+      <c r="D11" s="2">
         <v>18</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="E11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
         <v>22009</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="I11" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="6">
+      <c r="D12" s="2">
         <v>20.2</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="E12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
         <v>22009</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="I12" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="6">
+      <c r="D13" s="2">
         <v>16.3</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
         <v>22009</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="I13" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="C14" s="10">
         <v>0</v>
       </c>
-      <c r="F14" s="6">
+      <c r="D14" s="2">
         <v>20.2</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="E14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
         <v>22010</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7" t="s">
+      <c r="G14" s="10"/>
+      <c r="H14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B106" s="3"/>
-      <c r="D106" s="3"/>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B107" s="3"/>
-      <c r="D107" s="3"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B108" s="3"/>
-      <c r="D108" s="3"/>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B109" s="3"/>
-      <c r="D109" s="3"/>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B110" s="3"/>
-      <c r="D110" s="3"/>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B111" s="3"/>
-      <c r="D111" s="3"/>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B112" s="3"/>
-      <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B113" s="3"/>
-      <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B114" s="3"/>
-      <c r="D114" s="3"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B115" s="3"/>
-      <c r="D115" s="3"/>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B116" s="3"/>
-      <c r="D116" s="3"/>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B117" s="3"/>
-      <c r="D117" s="3"/>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B118" s="3"/>
-      <c r="D118" s="3"/>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B119" s="3"/>
-      <c r="D119" s="3"/>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="K120" s="1"/>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B121" s="3"/>
-      <c r="D121" s="3"/>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B122" s="3"/>
-      <c r="D122" s="3"/>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B123" s="3"/>
-      <c r="D123" s="3"/>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B124" s="3"/>
-      <c r="D124" s="3"/>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B125" s="3"/>
-      <c r="D125" s="3"/>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B126" s="3"/>
-      <c r="D126" s="3"/>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B127" s="3"/>
-      <c r="D127" s="3"/>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B128" s="3"/>
-      <c r="D128" s="3"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B129" s="3"/>
-      <c r="D129" s="3"/>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B130" s="3"/>
-      <c r="D130" s="3"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B131" s="3"/>
-      <c r="D131" s="3"/>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B132" s="3"/>
-      <c r="D132" s="3"/>
+      <c r="I14" s="10"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H132">
-    <sortCondition ref="C2:C132"/>
-    <sortCondition ref="H2:H132"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F132">
+    <sortCondition ref="F2:F132"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C25201A-ED7D-4B98-B534-D23BB5ECFA5E}">
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="10.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="12.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="2"/>
-    <col min="12" max="12" width="16.6640625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="17.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="12"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="12.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="12"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="C2" s="10">
         <v>0</v>
       </c>
-      <c r="F2" s="6">
+      <c r="D2" s="2">
         <v>19</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
         <v>22003</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6">
+      <c r="D3" s="2">
         <v>17.8</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="E3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
         <v>22003</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6">
+      <c r="D4" s="2">
         <v>18</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="E4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
         <v>22003</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="6">
+      <c r="D5" s="2">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="E5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
         <v>22003</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="C6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="D6" s="2">
         <v>19</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="E6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2">
         <v>22008</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6">
+      <c r="D7" s="2">
         <v>20</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="E7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
         <v>22008</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="I7" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6">
+      <c r="D8" s="2">
         <v>16.899999999999999</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="E8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
         <v>22008</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="I8" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="6">
+      <c r="D9" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="E9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
         <v>22008</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="I9" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="C10" s="10">
         <v>0</v>
       </c>
-      <c r="F10" s="6">
+      <c r="D10" s="2">
         <v>19.3</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="E10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2">
         <v>22009</v>
       </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="11" t="s">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>22009</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="6">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="C12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
         <v>22009</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11" t="s">
+      <c r="G12" s="10">
+        <v>22480</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="I12" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="6">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="C13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
+        <v>16.7</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
         <v>22009</v>
       </c>
-      <c r="I12" s="6">
-        <v>22480</v>
-      </c>
-      <c r="J12" s="11" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="6">
-        <v>16.7</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="6">
-        <v>22009</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11" t="s">
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>22010</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>21.1</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="6">
-        <v>22010</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D15" s="3"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="3"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="3"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="3"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="3"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="3"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="3"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D29" s="3"/>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D31" s="3"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="3"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="3"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D37" s="3"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D39" s="3"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D41" s="3"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D43" s="3"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D45" s="3"/>
-    </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D106" s="3"/>
-    </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D107" s="3"/>
-    </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D108" s="3"/>
-    </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D109" s="3"/>
-    </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D110" s="3"/>
-    </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D111" s="3"/>
-    </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D113" s="3"/>
-      <c r="K113" s="4"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D114" s="3"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D115" s="3"/>
-      <c r="K115" s="5"/>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D116" s="3"/>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D117" s="3"/>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D118" s="3"/>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D119" s="3"/>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D120" s="3"/>
-      <c r="K120" s="1"/>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D121" s="3"/>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D122" s="3"/>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D123" s="3"/>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D124" s="3"/>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D125" s="3"/>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B126" s="3"/>
-      <c r="D126" s="3"/>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B127" s="3"/>
-      <c r="D127" s="3"/>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B128" s="3"/>
-      <c r="D128" s="3"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B129" s="3"/>
-      <c r="D129" s="3"/>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B130" s="3"/>
-      <c r="D130" s="3"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B131" s="3"/>
-      <c r="D131" s="3"/>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B132" s="3"/>
-      <c r="D132" s="3"/>
+      <c r="I14" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1891,26 +1760,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="03c6cdc5-a326-4596-8bb5-5a108e6a189f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9bdb376e-ba08-4f94-9941-9e68dfd9ed35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D29CD47150B3D44192901CB20E6ABB56" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1b439f2d7c6d7abf5415dab7afed1a4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9bdb376e-ba08-4f94-9941-9e68dfd9ed35" xmlns:ns3="03c6cdc5-a326-4596-8bb5-5a108e6a189f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3257b63d3648651b426df57415bcf4c4" ns2:_="" ns3:_="">
     <xsd:import namespace="9bdb376e-ba08-4f94-9941-9e68dfd9ed35"/>
@@ -2099,10 +1948,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="03c6cdc5-a326-4596-8bb5-5a108e6a189f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9bdb376e-ba08-4f94-9941-9e68dfd9ed35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F20E8B07-673B-45FB-9B52-2C6DE9B56665}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{937EA692-236A-4E27-A58D-20EAE7DF481C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9bdb376e-ba08-4f94-9941-9e68dfd9ed35"/>
+    <ds:schemaRef ds:uri="03c6cdc5-a326-4596-8bb5-5a108e6a189f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2119,20 +1999,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{937EA692-236A-4E27-A58D-20EAE7DF481C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F20E8B07-673B-45FB-9B52-2C6DE9B56665}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9bdb376e-ba08-4f94-9941-9e68dfd9ed35"/>
-    <ds:schemaRef ds:uri="03c6cdc5-a326-4596-8bb5-5a108e6a189f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>